--- a/Dados/08-jul.xlsx
+++ b/Dados/08-jul.xlsx
@@ -4806,7 +4806,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>moji mirim</t>
+          <t>mogi mirim</t>
         </is>
       </c>
       <c r="B342" t="n">
